--- a/data/raw/plant-species_native-status.xlsx
+++ b/data/raw/plant-species_native-status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1447" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D931B70F-37AC-49B4-A640-C4CCF3B73A58}"/>
+  <xr:revisionPtr revIDLastSave="1448" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C42F9B92-96C3-4C60-A863-6E75FB620BAE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <t>ASNU5</t>
   </si>
   <si>
-    <t>Invasive</t>
-  </si>
-  <si>
     <t>Asclepias tuberosa</t>
   </si>
   <si>
@@ -2202,6 +2199,9 @@
   </si>
   <si>
     <t>Tidestromia lanuginosa</t>
+  </si>
+  <si>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2779,7 +2779,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -2787,10 +2787,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>36</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>38</v>
@@ -2941,13 +2941,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -2955,13 +2955,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -2969,13 +2969,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>43</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -3039,13 +3039,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -3053,10 +3053,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
         <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
         <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -3095,10 +3095,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
         <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
         <v>85</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
         <v>91</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -3207,13 +3207,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" t="s">
-        <v>98</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -3305,13 +3305,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
         <v>111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>112</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -3347,10 +3347,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
         <v>117</v>
-      </c>
-      <c r="B54" t="s">
-        <v>118</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" t="s">
-        <v>120</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
         <v>123</v>
-      </c>
-      <c r="B57" t="s">
-        <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -3445,13 +3445,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
         <v>129</v>
-      </c>
-      <c r="B60" t="s">
-        <v>130</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
         <v>133</v>
-      </c>
-      <c r="B62" t="s">
-        <v>134</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
         <v>135</v>
-      </c>
-      <c r="B63" t="s">
-        <v>136</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -3515,10 +3515,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
         <v>137</v>
-      </c>
-      <c r="B64" t="s">
-        <v>138</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
         <v>139</v>
-      </c>
-      <c r="B65" t="s">
-        <v>140</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
         <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>142</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -3557,10 +3557,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
         <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>144</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -3571,10 +3571,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -3655,10 +3655,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s">
         <v>156</v>
-      </c>
-      <c r="B74" t="s">
-        <v>157</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s">
         <v>160</v>
-      </c>
-      <c r="B76" t="s">
-        <v>161</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -3725,10 +3725,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
         <v>167</v>
-      </c>
-      <c r="B79" t="s">
-        <v>168</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -3739,10 +3739,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s">
         <v>169</v>
-      </c>
-      <c r="B80" t="s">
-        <v>170</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
@@ -3795,10 +3795,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
         <v>176</v>
-      </c>
-      <c r="B84" t="s">
-        <v>177</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -3809,10 +3809,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -3823,13 +3823,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -3837,13 +3837,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s">
         <v>184</v>
-      </c>
-      <c r="B88" t="s">
-        <v>185</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -3865,10 +3865,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -3879,13 +3879,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -3893,13 +3893,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s">
         <v>194</v>
-      </c>
-      <c r="B93" t="s">
-        <v>195</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -3935,10 +3935,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -3963,10 +3963,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
         <v>202</v>
-      </c>
-      <c r="B97" t="s">
-        <v>203</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -3991,13 +3991,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -4005,13 +4005,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" t="s">
         <v>207</v>
-      </c>
-      <c r="C99" t="s">
-        <v>208</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -4019,10 +4019,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
         <v>211</v>
-      </c>
-      <c r="B101" t="s">
-        <v>212</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -4047,10 +4047,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" t="s">
         <v>213</v>
-      </c>
-      <c r="B102" t="s">
-        <v>214</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
         <v>30</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
         <v>33</v>
@@ -4089,13 +4089,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
         <v>215</v>
       </c>
-      <c r="B105" t="s">
-        <v>216</v>
-      </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D105" t="s">
         <v>0</v>
@@ -4103,13 +4103,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B106" t="s">
         <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D106" t="s">
         <v>0</v>
@@ -4117,10 +4117,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
         <v>218</v>
-      </c>
-      <c r="B108" t="s">
-        <v>219</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
@@ -4145,10 +4145,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
         <v>220</v>
-      </c>
-      <c r="B109" t="s">
-        <v>221</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -4173,13 +4173,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
         <v>107</v>
       </c>
-      <c r="B111" t="s">
-        <v>108</v>
-      </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
         <v>222</v>
-      </c>
-      <c r="B112" t="s">
-        <v>223</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
         <v>224</v>
-      </c>
-      <c r="B113" t="s">
-        <v>225</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
         <v>226</v>
-      </c>
-      <c r="B114" t="s">
-        <v>227</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
         <v>111</v>
-      </c>
-      <c r="B116" t="s">
-        <v>112</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -4257,13 +4257,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
         <v>234</v>
       </c>
-      <c r="B117" t="s">
-        <v>235</v>
-      </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D117" t="s">
         <v>0</v>
@@ -4271,10 +4271,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
         <v>236</v>
-      </c>
-      <c r="B118" t="s">
-        <v>237</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
         <v>238</v>
-      </c>
-      <c r="B119" t="s">
-        <v>239</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -4299,10 +4299,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
         <v>240</v>
-      </c>
-      <c r="B120" t="s">
-        <v>241</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -4327,13 +4327,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
         <v>243</v>
       </c>
-      <c r="B122" t="s">
-        <v>244</v>
-      </c>
       <c r="C122" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D122" t="s">
         <v>0</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -4369,10 +4369,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
         <v>248</v>
-      </c>
-      <c r="B125" t="s">
-        <v>249</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
         <v>251</v>
-      </c>
-      <c r="B127" t="s">
-        <v>252</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
         <v>253</v>
-      </c>
-      <c r="B128" t="s">
-        <v>254</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
@@ -4425,13 +4425,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129" t="s">
         <v>182</v>
       </c>
-      <c r="B129" t="s">
-        <v>183</v>
-      </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D129" t="s">
         <v>0</v>
@@ -4439,13 +4439,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D130" t="s">
         <v>0</v>
@@ -4453,10 +4453,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" t="s">
         <v>256</v>
-      </c>
-      <c r="B131" t="s">
-        <v>257</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C132" t="s">
         <v>17</v>
@@ -4495,13 +4495,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -4509,10 +4509,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" t="s">
         <v>262</v>
-      </c>
-      <c r="B135" t="s">
-        <v>263</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" t="s">
         <v>264</v>
-      </c>
-      <c r="B136" t="s">
-        <v>265</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -4537,13 +4537,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" t="s">
         <v>69</v>
       </c>
-      <c r="B137" t="s">
-        <v>70</v>
-      </c>
       <c r="C137" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
@@ -4565,10 +4565,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" t="s">
         <v>87</v>
-      </c>
-      <c r="B139" t="s">
-        <v>88</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" t="s">
         <v>268</v>
-      </c>
-      <c r="B141" t="s">
-        <v>269</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>98</v>
+      </c>
+      <c r="B142" t="s">
         <v>99</v>
-      </c>
-      <c r="B142" t="s">
-        <v>100</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
@@ -4621,13 +4621,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B143" t="s">
         <v>107</v>
       </c>
-      <c r="B143" t="s">
-        <v>108</v>
-      </c>
       <c r="C143" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -4635,10 +4635,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>269</v>
+      </c>
+      <c r="B144" t="s">
         <v>270</v>
-      </c>
-      <c r="B144" t="s">
-        <v>271</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
@@ -4649,13 +4649,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B145" t="s">
         <v>115</v>
       </c>
-      <c r="B145" t="s">
-        <v>116</v>
-      </c>
       <c r="C145" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -4663,10 +4663,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>116</v>
+      </c>
+      <c r="B146" t="s">
         <v>117</v>
-      </c>
-      <c r="B146" t="s">
-        <v>118</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>122</v>
+      </c>
+      <c r="B148" t="s">
         <v>123</v>
-      </c>
-      <c r="B148" t="s">
-        <v>124</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
@@ -4705,10 +4705,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>130</v>
+      </c>
+      <c r="B149" t="s">
         <v>131</v>
-      </c>
-      <c r="B149" t="s">
-        <v>132</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
@@ -4719,10 +4719,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>132</v>
+      </c>
+      <c r="B150" t="s">
         <v>133</v>
-      </c>
-      <c r="B150" t="s">
-        <v>134</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" t="s">
         <v>137</v>
-      </c>
-      <c r="B151" t="s">
-        <v>138</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>271</v>
+      </c>
+      <c r="B152" t="s">
         <v>272</v>
-      </c>
-      <c r="B152" t="s">
-        <v>273</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" t="s">
         <v>158</v>
-      </c>
-      <c r="B153" t="s">
-        <v>159</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s">
         <v>160</v>
-      </c>
-      <c r="B154" t="s">
-        <v>161</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>273</v>
+      </c>
+      <c r="B155" t="s">
         <v>274</v>
-      </c>
-      <c r="B155" t="s">
-        <v>275</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -4803,10 +4803,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" t="s">
         <v>169</v>
-      </c>
-      <c r="B156" t="s">
-        <v>170</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -4817,13 +4817,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C157" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D157" t="s">
         <v>1</v>
@@ -4831,13 +4831,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C158" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -4845,13 +4845,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B159" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C159" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -4859,10 +4859,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>279</v>
+      </c>
+      <c r="B160" t="s">
         <v>280</v>
-      </c>
-      <c r="B160" t="s">
-        <v>281</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
@@ -4873,10 +4873,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>197</v>
+      </c>
+      <c r="B161" t="s">
         <v>198</v>
-      </c>
-      <c r="B161" t="s">
-        <v>199</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -4887,10 +4887,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>281</v>
+      </c>
+      <c r="B162" t="s">
         <v>282</v>
-      </c>
-      <c r="B162" t="s">
-        <v>283</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -4901,10 +4901,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>199</v>
+      </c>
+      <c r="B163" t="s">
         <v>200</v>
-      </c>
-      <c r="B163" t="s">
-        <v>201</v>
       </c>
       <c r="C163" t="s">
         <v>17</v>
@@ -4915,133 +4915,133 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B164" t="s">
         <v>284</v>
       </c>
-      <c r="B164" t="s">
-        <v>285</v>
-      </c>
       <c r="C164" t="s">
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B165" t="s">
         <v>286</v>
       </c>
-      <c r="B165" t="s">
-        <v>287</v>
-      </c>
       <c r="C165" t="s">
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B166" t="s">
         <v>288</v>
       </c>
-      <c r="B166" t="s">
-        <v>289</v>
-      </c>
       <c r="C166" t="s">
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B167" t="s">
         <v>290</v>
       </c>
-      <c r="B167" t="s">
-        <v>291</v>
-      </c>
       <c r="C167" t="s">
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B168" t="s">
         <v>292</v>
       </c>
-      <c r="B168" t="s">
-        <v>293</v>
-      </c>
       <c r="C168" t="s">
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B169" t="s">
         <v>294</v>
       </c>
-      <c r="B169" t="s">
-        <v>295</v>
-      </c>
       <c r="C169" t="s">
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C170" t="s">
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" t="s">
         <v>298</v>
       </c>
-      <c r="B171" t="s">
-        <v>299</v>
-      </c>
       <c r="C171" t="s">
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B172" t="s">
         <v>300</v>
       </c>
-      <c r="B172" t="s">
-        <v>301</v>
-      </c>
       <c r="C172" t="s">
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B173" t="s">
         <v>27</v>
@@ -5050,26 +5050,26 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B174" t="s">
         <v>303</v>
       </c>
-      <c r="B174" t="s">
-        <v>304</v>
-      </c>
       <c r="C174" t="s">
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B175" t="s">
         <v>33</v>
@@ -5078,152 +5078,152 @@
         <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B176" t="s">
         <v>305</v>
       </c>
-      <c r="B176" t="s">
-        <v>306</v>
-      </c>
       <c r="C176" t="s">
         <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B177" t="s">
         <v>307</v>
       </c>
-      <c r="B177" t="s">
-        <v>308</v>
-      </c>
       <c r="C177" t="s">
         <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B178" t="s">
         <v>309</v>
       </c>
-      <c r="B178" t="s">
-        <v>310</v>
-      </c>
       <c r="C178" t="s">
         <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B179" t="s">
         <v>311</v>
       </c>
-      <c r="B179" t="s">
-        <v>312</v>
-      </c>
       <c r="C179" t="s">
         <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" t="s">
         <v>313</v>
       </c>
-      <c r="B180" t="s">
-        <v>314</v>
-      </c>
       <c r="C180" t="s">
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B181" t="s">
         <v>315</v>
       </c>
-      <c r="B181" t="s">
-        <v>316</v>
-      </c>
       <c r="C181" t="s">
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B182" t="s">
         <v>40</v>
       </c>
       <c r="C182" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D182" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B183" t="s">
         <v>317</v>
       </c>
-      <c r="B183" t="s">
-        <v>318</v>
-      </c>
       <c r="C183" t="s">
         <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B184" t="s">
         <v>319</v>
       </c>
-      <c r="B184" t="s">
-        <v>320</v>
-      </c>
       <c r="C184" t="s">
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B185" t="s">
         <v>321</v>
       </c>
-      <c r="B185" t="s">
-        <v>322</v>
-      </c>
       <c r="C185" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D185" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B186" t="s">
         <v>42</v>
@@ -5232,1071 +5232,1071 @@
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B187" t="s">
         <v>323</v>
       </c>
-      <c r="B187" t="s">
-        <v>324</v>
-      </c>
       <c r="C187" t="s">
         <v>8</v>
       </c>
       <c r="D187" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B188" t="s">
         <v>325</v>
       </c>
-      <c r="B188" t="s">
-        <v>326</v>
-      </c>
       <c r="C188" t="s">
         <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B189" t="s">
         <v>327</v>
       </c>
-      <c r="B189" t="s">
-        <v>328</v>
-      </c>
       <c r="C189" t="s">
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B190" t="s">
         <v>329</v>
       </c>
-      <c r="B190" t="s">
-        <v>330</v>
-      </c>
       <c r="C190" t="s">
         <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B191" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B192" t="s">
         <v>332</v>
       </c>
-      <c r="B192" t="s">
-        <v>333</v>
-      </c>
       <c r="C192" t="s">
         <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B193" t="s">
         <v>89</v>
       </c>
-      <c r="B193" t="s">
-        <v>90</v>
-      </c>
       <c r="C193" t="s">
         <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B194" t="s">
         <v>95</v>
       </c>
-      <c r="B194" t="s">
-        <v>96</v>
-      </c>
       <c r="C194" t="s">
         <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B195" t="s">
         <v>334</v>
       </c>
-      <c r="B195" t="s">
-        <v>335</v>
-      </c>
       <c r="C195" t="s">
         <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B196" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C196" t="s">
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B197" t="s">
         <v>337</v>
       </c>
-      <c r="B197" t="s">
-        <v>338</v>
-      </c>
       <c r="C197" t="s">
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B198" t="s">
         <v>339</v>
       </c>
-      <c r="B198" t="s">
-        <v>340</v>
-      </c>
       <c r="C198" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D198" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B199" t="s">
         <v>107</v>
       </c>
-      <c r="B199" t="s">
-        <v>108</v>
-      </c>
       <c r="C199" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D199" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B200" t="s">
         <v>341</v>
       </c>
-      <c r="B200" t="s">
-        <v>342</v>
-      </c>
       <c r="C200" t="s">
         <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B201" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B202" t="s">
         <v>345</v>
       </c>
-      <c r="B202" t="s">
-        <v>346</v>
-      </c>
       <c r="C202" t="s">
         <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B203" t="s">
         <v>347</v>
       </c>
-      <c r="B203" t="s">
-        <v>348</v>
-      </c>
       <c r="C203" t="s">
         <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B204" t="s">
         <v>349</v>
       </c>
-      <c r="B204" t="s">
-        <v>350</v>
-      </c>
       <c r="C204" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D204" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B205" t="s">
         <v>351</v>
       </c>
-      <c r="B205" t="s">
-        <v>352</v>
-      </c>
       <c r="C205" t="s">
         <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B206" t="s">
         <v>353</v>
       </c>
-      <c r="B206" t="s">
-        <v>354</v>
-      </c>
       <c r="C206" t="s">
         <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B207" t="s">
         <v>355</v>
       </c>
-      <c r="B207" t="s">
-        <v>356</v>
-      </c>
       <c r="C207" t="s">
         <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B208" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C208" t="s">
         <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B209" t="s">
         <v>358</v>
       </c>
-      <c r="B209" t="s">
-        <v>359</v>
-      </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B210" t="s">
         <v>360</v>
       </c>
-      <c r="B210" t="s">
-        <v>361</v>
-      </c>
       <c r="C210" t="s">
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B211" t="s">
         <v>362</v>
       </c>
-      <c r="B211" t="s">
-        <v>363</v>
-      </c>
       <c r="C211" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D211" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B212" t="s">
         <v>236</v>
       </c>
-      <c r="B212" t="s">
-        <v>237</v>
-      </c>
       <c r="C212" t="s">
         <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B213" t="s">
         <v>364</v>
       </c>
-      <c r="B213" t="s">
-        <v>365</v>
-      </c>
       <c r="C213" t="s">
         <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B214" t="s">
         <v>366</v>
       </c>
-      <c r="B214" t="s">
-        <v>367</v>
-      </c>
       <c r="C214" t="s">
         <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B215" t="s">
         <v>368</v>
       </c>
-      <c r="B215" t="s">
-        <v>369</v>
-      </c>
       <c r="C215" t="s">
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B216" t="s">
         <v>370</v>
       </c>
-      <c r="B216" t="s">
-        <v>371</v>
-      </c>
       <c r="C216" t="s">
         <v>8</v>
       </c>
       <c r="D216" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B217" t="s">
         <v>372</v>
       </c>
-      <c r="B217" t="s">
-        <v>373</v>
-      </c>
       <c r="C217" t="s">
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B218" t="s">
         <v>374</v>
       </c>
-      <c r="B218" t="s">
-        <v>375</v>
-      </c>
       <c r="C218" t="s">
         <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B219" t="s">
         <v>376</v>
       </c>
-      <c r="B219" t="s">
-        <v>377</v>
-      </c>
       <c r="C219" t="s">
         <v>8</v>
       </c>
       <c r="D219" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B220" t="s">
         <v>378</v>
       </c>
-      <c r="B220" t="s">
-        <v>379</v>
-      </c>
       <c r="C220" t="s">
         <v>8</v>
       </c>
       <c r="D220" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B221" t="s">
         <v>380</v>
       </c>
-      <c r="B221" t="s">
-        <v>381</v>
-      </c>
       <c r="C221" t="s">
         <v>8</v>
       </c>
       <c r="D221" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B222" t="s">
         <v>382</v>
       </c>
-      <c r="B222" t="s">
-        <v>383</v>
-      </c>
       <c r="C222" t="s">
         <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B223" t="s">
         <v>384</v>
       </c>
-      <c r="B223" t="s">
-        <v>385</v>
-      </c>
       <c r="C223" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D223" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B224" t="s">
         <v>386</v>
       </c>
-      <c r="B224" t="s">
-        <v>387</v>
-      </c>
       <c r="C224" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D224" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B225" t="s">
         <v>388</v>
       </c>
-      <c r="B225" t="s">
-        <v>389</v>
-      </c>
       <c r="C225" t="s">
         <v>8</v>
       </c>
       <c r="D225" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B226" t="s">
         <v>390</v>
       </c>
-      <c r="B226" t="s">
-        <v>391</v>
-      </c>
       <c r="C226" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D226" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B227" t="s">
         <v>392</v>
       </c>
-      <c r="B227" t="s">
-        <v>393</v>
-      </c>
       <c r="C227" t="s">
         <v>8</v>
       </c>
       <c r="D227" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B228" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C228" t="s">
         <v>8</v>
       </c>
       <c r="D228" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B229" t="s">
         <v>397</v>
       </c>
-      <c r="B229" t="s">
-        <v>398</v>
-      </c>
       <c r="C229" t="s">
         <v>8</v>
       </c>
       <c r="D229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B230" t="s">
         <v>251</v>
       </c>
-      <c r="B230" t="s">
-        <v>252</v>
-      </c>
       <c r="C230" t="s">
         <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B231" t="s">
         <v>399</v>
       </c>
-      <c r="B231" t="s">
-        <v>400</v>
-      </c>
       <c r="C231" t="s">
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B232" t="s">
         <v>401</v>
       </c>
-      <c r="B232" t="s">
-        <v>402</v>
-      </c>
       <c r="C232" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D232" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B233" t="s">
         <v>403</v>
       </c>
-      <c r="B233" t="s">
-        <v>404</v>
-      </c>
       <c r="C233" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D233" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B234" t="s">
         <v>405</v>
       </c>
-      <c r="B234" t="s">
-        <v>406</v>
-      </c>
       <c r="C234" t="s">
         <v>8</v>
       </c>
       <c r="D234" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B235" t="s">
         <v>253</v>
       </c>
-      <c r="B235" t="s">
-        <v>254</v>
-      </c>
       <c r="C235" t="s">
         <v>8</v>
       </c>
       <c r="D235" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B236" t="s">
         <v>169</v>
       </c>
-      <c r="B236" t="s">
-        <v>170</v>
-      </c>
       <c r="C236" t="s">
         <v>8</v>
       </c>
       <c r="D236" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B237" t="s">
         <v>407</v>
       </c>
-      <c r="B237" t="s">
-        <v>408</v>
-      </c>
       <c r="C237" t="s">
         <v>8</v>
       </c>
       <c r="D237" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B238" t="s">
         <v>409</v>
       </c>
-      <c r="B238" t="s">
-        <v>410</v>
-      </c>
       <c r="C238" t="s">
         <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B239" t="s">
         <v>411</v>
       </c>
-      <c r="B239" t="s">
-        <v>412</v>
-      </c>
       <c r="C239" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D239" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" t="s">
         <v>413</v>
       </c>
-      <c r="B240" t="s">
-        <v>414</v>
-      </c>
       <c r="C240" t="s">
         <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B241" t="s">
         <v>415</v>
       </c>
-      <c r="B241" t="s">
-        <v>416</v>
-      </c>
       <c r="C241" t="s">
         <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B242" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C242" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D242" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B243" t="s">
         <v>182</v>
       </c>
-      <c r="B243" t="s">
-        <v>183</v>
-      </c>
       <c r="C243" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B244" t="s">
         <v>186</v>
       </c>
-      <c r="B244" t="s">
-        <v>187</v>
-      </c>
       <c r="C244" t="s">
         <v>8</v>
       </c>
       <c r="D244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B245" t="s">
         <v>417</v>
       </c>
-      <c r="B245" t="s">
-        <v>418</v>
-      </c>
       <c r="C245" t="s">
         <v>8</v>
       </c>
       <c r="D245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B246" t="s">
         <v>190</v>
       </c>
-      <c r="B246" t="s">
-        <v>191</v>
-      </c>
       <c r="C246" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D246" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B247" t="s">
         <v>419</v>
       </c>
-      <c r="B247" t="s">
-        <v>420</v>
-      </c>
       <c r="C247" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D247" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B248" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
       </c>
       <c r="D248" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B249" t="s">
         <v>198</v>
       </c>
-      <c r="B249" t="s">
-        <v>199</v>
-      </c>
       <c r="C249" t="s">
         <v>8</v>
       </c>
       <c r="D249" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B250" t="s">
         <v>422</v>
       </c>
-      <c r="B250" t="s">
-        <v>423</v>
-      </c>
       <c r="C250" t="s">
         <v>8</v>
       </c>
       <c r="D250" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B251" t="s">
         <v>204</v>
       </c>
-      <c r="B251" t="s">
-        <v>205</v>
-      </c>
       <c r="C251" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D251" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B252" t="s">
         <v>424</v>
       </c>
-      <c r="B252" t="s">
-        <v>425</v>
-      </c>
       <c r="C252" t="s">
         <v>8</v>
       </c>
       <c r="D252" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B253" t="s">
         <v>426</v>
       </c>
-      <c r="B253" t="s">
-        <v>427</v>
-      </c>
       <c r="C253" t="s">
         <v>8</v>
       </c>
       <c r="D253" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B254" t="s">
         <v>428</v>
       </c>
-      <c r="B254" t="s">
-        <v>429</v>
-      </c>
       <c r="C254" t="s">
         <v>8</v>
       </c>
       <c r="D254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B255" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C255" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D255" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B256" t="s">
         <v>432</v>
       </c>
-      <c r="B256" t="s">
-        <v>433</v>
-      </c>
       <c r="C256" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B257" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C257" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D257" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B258" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C258" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D258" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B259" t="s">
         <v>435</v>
       </c>
-      <c r="B259" t="s">
-        <v>436</v>
-      </c>
       <c r="C259" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B260" t="s">
         <v>450</v>
       </c>
-      <c r="B260" t="s">
-        <v>451</v>
-      </c>
       <c r="C260" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B261" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C261" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B262" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C262" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6304,41 +6304,41 @@
         <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C263" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D263" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B264" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C264" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D264" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B265" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C265" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D265" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6346,35 +6346,35 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C266" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D266" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B267" t="s">
         <v>448</v>
       </c>
-      <c r="B267" t="s">
-        <v>449</v>
-      </c>
       <c r="C267" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D267" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>451</v>
+      </c>
+      <c r="B268" t="s">
         <v>452</v>
-      </c>
-      <c r="B268" t="s">
-        <v>453</v>
       </c>
       <c r="C268" t="s">
         <v>17</v>
@@ -6385,10 +6385,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B269" t="s">
         <v>288</v>
-      </c>
-      <c r="B269" t="s">
-        <v>289</v>
       </c>
       <c r="C269" t="s">
         <v>8</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>293</v>
+      </c>
+      <c r="B270" t="s">
         <v>294</v>
-      </c>
-      <c r="B270" t="s">
-        <v>295</v>
       </c>
       <c r="C270" t="s">
         <v>8</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B271" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C271" t="s">
         <v>8</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>454</v>
+      </c>
+      <c r="B272" t="s">
         <v>455</v>
-      </c>
-      <c r="B272" t="s">
-        <v>456</v>
       </c>
       <c r="C272" t="s">
         <v>8</v>
@@ -6441,10 +6441,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>297</v>
+      </c>
+      <c r="B273" t="s">
         <v>298</v>
-      </c>
-      <c r="B273" t="s">
-        <v>299</v>
       </c>
       <c r="C273" t="s">
         <v>8</v>
@@ -6455,10 +6455,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>456</v>
+      </c>
+      <c r="B274" t="s">
         <v>457</v>
-      </c>
-      <c r="B274" t="s">
-        <v>458</v>
       </c>
       <c r="C274" t="s">
         <v>8</v>
@@ -6483,10 +6483,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B276" t="s">
         <v>459</v>
-      </c>
-      <c r="B276" t="s">
-        <v>460</v>
       </c>
       <c r="C276" t="s">
         <v>8</v>
@@ -6497,10 +6497,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B277" t="s">
         <v>461</v>
-      </c>
-      <c r="B277" t="s">
-        <v>462</v>
       </c>
       <c r="C277" t="s">
         <v>8</v>
@@ -6511,10 +6511,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B278" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C278" t="s">
         <v>17</v>
@@ -6525,10 +6525,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B279" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C279" t="s">
         <v>8</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B280" t="s">
         <v>33</v>
@@ -6553,10 +6553,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B281" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C281" t="s">
         <v>8</v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
+        <v>308</v>
+      </c>
+      <c r="B282" t="s">
         <v>309</v>
-      </c>
-      <c r="B282" t="s">
-        <v>310</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B283" t="s">
         <v>34</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B284" t="s">
         <v>35</v>
@@ -6609,10 +6609,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B285" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C285" t="s">
         <v>8</v>
@@ -6623,10 +6623,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B286" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C286" t="s">
         <v>8</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B287" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C287" t="s">
         <v>17</v>
@@ -6651,10 +6651,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B288" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C288" t="s">
         <v>8</v>
@@ -6665,13 +6665,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B289" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C289" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D289" t="s">
         <v>2</v>
@@ -6679,10 +6679,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
+        <v>474</v>
+      </c>
+      <c r="B290" t="s">
         <v>475</v>
-      </c>
-      <c r="B290" t="s">
-        <v>476</v>
       </c>
       <c r="C290" t="s">
         <v>8</v>
@@ -6693,10 +6693,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>476</v>
+      </c>
+      <c r="B291" t="s">
         <v>477</v>
-      </c>
-      <c r="B291" t="s">
-        <v>478</v>
       </c>
       <c r="C291" t="s">
         <v>8</v>
@@ -6707,10 +6707,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
+        <v>478</v>
+      </c>
+      <c r="B292" t="s">
         <v>479</v>
-      </c>
-      <c r="B292" t="s">
-        <v>480</v>
       </c>
       <c r="C292" t="s">
         <v>8</v>
@@ -6721,10 +6721,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
+        <v>480</v>
+      </c>
+      <c r="B293" t="s">
         <v>481</v>
-      </c>
-      <c r="B293" t="s">
-        <v>482</v>
       </c>
       <c r="C293" t="s">
         <v>8</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>482</v>
+      </c>
+      <c r="B294" t="s">
         <v>483</v>
-      </c>
-      <c r="B294" t="s">
-        <v>484</v>
       </c>
       <c r="C294" t="s">
         <v>8</v>
@@ -6749,10 +6749,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B295" t="s">
         <v>485</v>
-      </c>
-      <c r="B295" t="s">
-        <v>486</v>
       </c>
       <c r="C295" t="s">
         <v>8</v>
@@ -6763,10 +6763,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B296" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
@@ -6777,10 +6777,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B297" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C297" t="s">
         <v>8</v>
@@ -6791,10 +6791,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>94</v>
+      </c>
+      <c r="B298" t="s">
         <v>95</v>
-      </c>
-      <c r="B298" t="s">
-        <v>96</v>
       </c>
       <c r="C298" t="s">
         <v>8</v>
@@ -6805,10 +6805,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B299" t="s">
         <v>334</v>
-      </c>
-      <c r="B299" t="s">
-        <v>335</v>
       </c>
       <c r="C299" t="s">
         <v>8</v>
@@ -6819,10 +6819,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B300" t="s">
         <v>99</v>
-      </c>
-      <c r="B300" t="s">
-        <v>100</v>
       </c>
       <c r="C300" t="s">
         <v>8</v>
@@ -6833,13 +6833,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>488</v>
+      </c>
+      <c r="B301" t="s">
         <v>489</v>
       </c>
-      <c r="B301" t="s">
-        <v>490</v>
-      </c>
       <c r="C301" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -6847,13 +6847,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B302" t="s">
         <v>107</v>
       </c>
-      <c r="B302" t="s">
-        <v>108</v>
-      </c>
       <c r="C302" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -6861,13 +6861,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B303" t="s">
         <v>491</v>
       </c>
-      <c r="B303" t="s">
-        <v>492</v>
-      </c>
       <c r="C303" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D303" t="s">
         <v>2</v>
@@ -6875,13 +6875,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B304" t="s">
         <v>493</v>
       </c>
-      <c r="B304" t="s">
-        <v>494</v>
-      </c>
       <c r="C304" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
+        <v>494</v>
+      </c>
+      <c r="B305" t="s">
         <v>495</v>
-      </c>
-      <c r="B305" t="s">
-        <v>496</v>
       </c>
       <c r="C305" t="s">
         <v>8</v>
@@ -6903,13 +6903,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
+        <v>496</v>
+      </c>
+      <c r="B306" t="s">
         <v>497</v>
       </c>
-      <c r="B306" t="s">
-        <v>498</v>
-      </c>
       <c r="C306" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -6917,10 +6917,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B307" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C307" t="s">
         <v>8</v>
@@ -6931,10 +6931,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
+        <v>499</v>
+      </c>
+      <c r="B308" t="s">
         <v>500</v>
-      </c>
-      <c r="B308" t="s">
-        <v>501</v>
       </c>
       <c r="C308" t="s">
         <v>8</v>
@@ -6945,10 +6945,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
+        <v>501</v>
+      </c>
+      <c r="B309" t="s">
         <v>502</v>
-      </c>
-      <c r="B309" t="s">
-        <v>503</v>
       </c>
       <c r="C309" t="s">
         <v>8</v>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B310" t="s">
         <v>504</v>
-      </c>
-      <c r="B310" t="s">
-        <v>505</v>
       </c>
       <c r="C310" t="s">
         <v>8</v>
@@ -6973,10 +6973,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
+        <v>505</v>
+      </c>
+      <c r="B311" t="s">
         <v>506</v>
-      </c>
-      <c r="B311" t="s">
-        <v>507</v>
       </c>
       <c r="C311" t="s">
         <v>8</v>
@@ -6987,10 +6987,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B312" t="s">
         <v>131</v>
-      </c>
-      <c r="B312" t="s">
-        <v>132</v>
       </c>
       <c r="C312" t="s">
         <v>8</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
+        <v>237</v>
+      </c>
+      <c r="B313" t="s">
         <v>238</v>
-      </c>
-      <c r="B313" t="s">
-        <v>239</v>
       </c>
       <c r="C313" t="s">
         <v>8</v>
@@ -7015,10 +7015,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
+        <v>507</v>
+      </c>
+      <c r="B314" t="s">
         <v>508</v>
-      </c>
-      <c r="B314" t="s">
-        <v>509</v>
       </c>
       <c r="C314" t="s">
         <v>8</v>
@@ -7029,10 +7029,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B315" t="s">
         <v>510</v>
-      </c>
-      <c r="B315" t="s">
-        <v>511</v>
       </c>
       <c r="C315" t="s">
         <v>8</v>
@@ -7043,10 +7043,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
+        <v>379</v>
+      </c>
+      <c r="B316" t="s">
         <v>380</v>
-      </c>
-      <c r="B316" t="s">
-        <v>381</v>
       </c>
       <c r="C316" t="s">
         <v>8</v>
@@ -7057,13 +7057,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B317" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C317" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D317" t="s">
         <v>2</v>
@@ -7071,10 +7071,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B318" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C318" t="s">
         <v>8</v>
@@ -7085,10 +7085,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B319" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C319" t="s">
         <v>8</v>
@@ -7099,10 +7099,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B320" t="s">
         <v>148</v>
-      </c>
-      <c r="B320" t="s">
-        <v>149</v>
       </c>
       <c r="C320" t="s">
         <v>8</v>
@@ -7113,10 +7113,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B321" t="s">
         <v>150</v>
-      </c>
-      <c r="B321" t="s">
-        <v>151</v>
       </c>
       <c r="C321" t="s">
         <v>8</v>
@@ -7127,10 +7127,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B322" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C322" t="s">
         <v>8</v>
@@ -7141,13 +7141,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B323" t="s">
         <v>514</v>
       </c>
-      <c r="B323" t="s">
-        <v>515</v>
-      </c>
       <c r="C323" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D323" t="s">
         <v>2</v>
@@ -7155,10 +7155,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>515</v>
+      </c>
+      <c r="B324" t="s">
         <v>516</v>
-      </c>
-      <c r="B324" t="s">
-        <v>517</v>
       </c>
       <c r="C324" t="s">
         <v>8</v>
@@ -7169,10 +7169,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>517</v>
+      </c>
+      <c r="B325" t="s">
         <v>518</v>
-      </c>
-      <c r="B325" t="s">
-        <v>519</v>
       </c>
       <c r="C325" t="s">
         <v>8</v>
@@ -7183,10 +7183,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
+        <v>519</v>
+      </c>
+      <c r="B326" t="s">
         <v>520</v>
-      </c>
-      <c r="B326" t="s">
-        <v>521</v>
       </c>
       <c r="C326" t="s">
         <v>8</v>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B327" t="s">
         <v>522</v>
-      </c>
-      <c r="B327" t="s">
-        <v>523</v>
       </c>
       <c r="C327" t="s">
         <v>8</v>
@@ -7211,10 +7211,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>404</v>
+      </c>
+      <c r="B328" t="s">
         <v>405</v>
-      </c>
-      <c r="B328" t="s">
-        <v>406</v>
       </c>
       <c r="C328" t="s">
         <v>8</v>
@@ -7225,13 +7225,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B329" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C329" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D329" t="s">
         <v>2</v>
@@ -7239,10 +7239,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B330" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C330" t="s">
         <v>8</v>
@@ -7253,10 +7253,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B331" t="s">
         <v>172</v>
-      </c>
-      <c r="B331" t="s">
-        <v>173</v>
       </c>
       <c r="C331" t="s">
         <v>8</v>
@@ -7267,10 +7267,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>525</v>
+      </c>
+      <c r="B332" t="s">
         <v>526</v>
-      </c>
-      <c r="B332" t="s">
-        <v>527</v>
       </c>
       <c r="C332" t="s">
         <v>8</v>
@@ -7281,10 +7281,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>527</v>
+      </c>
+      <c r="B333" t="s">
         <v>528</v>
-      </c>
-      <c r="B333" t="s">
-        <v>529</v>
       </c>
       <c r="C333" t="s">
         <v>17</v>
@@ -7295,10 +7295,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>529</v>
+      </c>
+      <c r="B334" t="s">
         <v>530</v>
-      </c>
-      <c r="B334" t="s">
-        <v>531</v>
       </c>
       <c r="C334" t="s">
         <v>8</v>
@@ -7309,13 +7309,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B335" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C335" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -7323,13 +7323,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>532</v>
+      </c>
+      <c r="B336" t="s">
         <v>533</v>
       </c>
-      <c r="B336" t="s">
-        <v>534</v>
-      </c>
       <c r="C336" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -7337,10 +7337,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B337" t="s">
         <v>186</v>
-      </c>
-      <c r="B337" t="s">
-        <v>187</v>
       </c>
       <c r="C337" t="s">
         <v>8</v>
@@ -7351,13 +7351,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B338" t="s">
         <v>535</v>
       </c>
-      <c r="B338" t="s">
-        <v>536</v>
-      </c>
       <c r="C338" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -7365,10 +7365,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B339" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C339" t="s">
         <v>17</v>
@@ -7379,10 +7379,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
+        <v>537</v>
+      </c>
+      <c r="B340" t="s">
         <v>538</v>
-      </c>
-      <c r="B340" t="s">
-        <v>539</v>
       </c>
       <c r="C340" t="s">
         <v>8</v>
@@ -7393,10 +7393,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>539</v>
+      </c>
+      <c r="B341" t="s">
         <v>540</v>
-      </c>
-      <c r="B341" t="s">
-        <v>541</v>
       </c>
       <c r="C341" t="s">
         <v>8</v>
@@ -7407,10 +7407,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B342" t="s">
         <v>198</v>
-      </c>
-      <c r="B342" t="s">
-        <v>199</v>
       </c>
       <c r="C342" t="s">
         <v>8</v>
@@ -7421,10 +7421,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
+        <v>541</v>
+      </c>
+      <c r="B343" t="s">
         <v>542</v>
-      </c>
-      <c r="B343" t="s">
-        <v>543</v>
       </c>
       <c r="C343" t="s">
         <v>8</v>
@@ -7435,10 +7435,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
+        <v>543</v>
+      </c>
+      <c r="B344" t="s">
         <v>544</v>
-      </c>
-      <c r="B344" t="s">
-        <v>545</v>
       </c>
       <c r="C344" t="s">
         <v>8</v>
@@ -7449,10 +7449,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B345" t="s">
         <v>546</v>
-      </c>
-      <c r="B345" t="s">
-        <v>547</v>
       </c>
       <c r="C345" t="s">
         <v>8</v>
@@ -7463,13 +7463,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B346" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C346" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D346" t="s">
         <v>2</v>
@@ -7477,13 +7477,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B347" t="s">
         <v>550</v>
       </c>
-      <c r="B347" t="s">
-        <v>551</v>
-      </c>
       <c r="C347" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D347" t="s">
         <v>2</v>
@@ -7491,13 +7491,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B348" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C348" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D348" t="s">
         <v>2</v>
@@ -7505,13 +7505,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B349" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C349" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D349" t="s">
         <v>2</v>
@@ -7519,13 +7519,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B350" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C350" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D350" t="s">
         <v>2</v>
@@ -7533,13 +7533,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
+        <v>555</v>
+      </c>
+      <c r="B351" t="s">
         <v>556</v>
       </c>
-      <c r="B351" t="s">
-        <v>557</v>
-      </c>
       <c r="C351" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D351" t="s">
         <v>2</v>
@@ -7547,13 +7547,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B352" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C352" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D352" t="s">
         <v>2</v>
@@ -7561,13 +7561,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
+        <v>558</v>
+      </c>
+      <c r="B353" t="s">
         <v>559</v>
       </c>
-      <c r="B353" t="s">
-        <v>560</v>
-      </c>
       <c r="C353" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D353" t="s">
         <v>2</v>
@@ -7575,13 +7575,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
+        <v>560</v>
+      </c>
+      <c r="B354" t="s">
         <v>561</v>
       </c>
-      <c r="B354" t="s">
-        <v>562</v>
-      </c>
       <c r="C354" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D354" t="s">
         <v>2</v>
@@ -7589,13 +7589,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
+        <v>562</v>
+      </c>
+      <c r="B355" t="s">
         <v>563</v>
       </c>
-      <c r="B355" t="s">
-        <v>564</v>
-      </c>
       <c r="C355" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D355" t="s">
         <v>2</v>
@@ -7603,13 +7603,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
+        <v>564</v>
+      </c>
+      <c r="B356" t="s">
         <v>565</v>
       </c>
-      <c r="B356" t="s">
-        <v>566</v>
-      </c>
       <c r="C356" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D356" t="s">
         <v>2</v>
@@ -7617,13 +7617,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
+        <v>566</v>
+      </c>
+      <c r="B357" t="s">
         <v>567</v>
       </c>
-      <c r="B357" t="s">
-        <v>568</v>
-      </c>
       <c r="C357" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D357" t="s">
         <v>2</v>
@@ -7631,13 +7631,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>568</v>
+      </c>
+      <c r="B358" t="s">
         <v>569</v>
       </c>
-      <c r="B358" t="s">
-        <v>570</v>
-      </c>
       <c r="C358" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D358" t="s">
         <v>2</v>
@@ -7645,13 +7645,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
+        <v>573</v>
+      </c>
+      <c r="B359" t="s">
         <v>574</v>
       </c>
-      <c r="B359" t="s">
-        <v>575</v>
-      </c>
       <c r="C359" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D359" t="s">
         <v>2</v>
@@ -7659,13 +7659,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
+        <v>575</v>
+      </c>
+      <c r="B360" t="s">
         <v>576</v>
       </c>
-      <c r="B360" t="s">
-        <v>577</v>
-      </c>
       <c r="C360" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D360" t="s">
         <v>2</v>
@@ -7673,13 +7673,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B361" t="s">
         <v>578</v>
       </c>
-      <c r="B361" t="s">
-        <v>579</v>
-      </c>
       <c r="C361" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D361" t="s">
         <v>2</v>
@@ -7687,13 +7687,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B362" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C362" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D362" t="s">
         <v>2</v>
@@ -7701,13 +7701,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
+        <v>580</v>
+      </c>
+      <c r="B363" t="s">
         <v>581</v>
       </c>
-      <c r="B363" t="s">
-        <v>582</v>
-      </c>
       <c r="C363" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -7715,13 +7715,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B364" t="s">
         <v>583</v>
       </c>
-      <c r="B364" t="s">
-        <v>584</v>
-      </c>
       <c r="C364" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -7729,13 +7729,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B365" t="s">
         <v>585</v>
       </c>
-      <c r="B365" t="s">
-        <v>586</v>
-      </c>
       <c r="C365" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -7743,13 +7743,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B366" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C366" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -7757,13 +7757,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
+        <v>587</v>
+      </c>
+      <c r="B367" t="s">
         <v>588</v>
       </c>
-      <c r="B367" t="s">
-        <v>589</v>
-      </c>
       <c r="C367" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D367" t="s">
         <v>2</v>
@@ -7771,13 +7771,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B368" t="s">
         <v>590</v>
       </c>
-      <c r="B368" t="s">
-        <v>591</v>
-      </c>
       <c r="C368" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -7785,13 +7785,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B369" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C369" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -7799,13 +7799,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B370" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C370" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -7813,13 +7813,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
+        <v>593</v>
+      </c>
+      <c r="B371" t="s">
         <v>594</v>
       </c>
-      <c r="B371" t="s">
-        <v>595</v>
-      </c>
       <c r="C371" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D371" t="s">
         <v>2</v>
@@ -7827,13 +7827,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
+        <v>595</v>
+      </c>
+      <c r="B372" t="s">
         <v>596</v>
       </c>
-      <c r="B372" t="s">
-        <v>597</v>
-      </c>
       <c r="C372" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -7841,13 +7841,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
+        <v>597</v>
+      </c>
+      <c r="B373" t="s">
         <v>598</v>
       </c>
-      <c r="B373" t="s">
-        <v>599</v>
-      </c>
       <c r="C373" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D373" t="s">
         <v>2</v>
@@ -7855,10 +7855,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
+        <v>599</v>
+      </c>
+      <c r="B374" t="s">
         <v>600</v>
-      </c>
-      <c r="B374" t="s">
-        <v>601</v>
       </c>
       <c r="C374" t="s">
         <v>8</v>
@@ -7869,10 +7869,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B375" t="s">
         <v>602</v>
-      </c>
-      <c r="B375" t="s">
-        <v>603</v>
       </c>
       <c r="C375" t="s">
         <v>8</v>
@@ -7883,13 +7883,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
+        <v>603</v>
+      </c>
+      <c r="B376" t="s">
         <v>604</v>
       </c>
-      <c r="B376" t="s">
-        <v>605</v>
-      </c>
       <c r="C376" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D376" t="s">
         <v>2</v>
@@ -7897,13 +7897,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B377" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C377" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D377" t="s">
         <v>2</v>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
+        <v>606</v>
+      </c>
+      <c r="B378" t="s">
         <v>607</v>
       </c>
-      <c r="B378" t="s">
-        <v>608</v>
-      </c>
       <c r="C378" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D378" t="s">
         <v>2</v>
@@ -7925,13 +7925,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
+        <v>608</v>
+      </c>
+      <c r="B379" t="s">
         <v>609</v>
       </c>
-      <c r="B379" t="s">
-        <v>610</v>
-      </c>
       <c r="C379" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D379" t="s">
         <v>2</v>
@@ -7939,13 +7939,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B380" t="s">
         <v>611</v>
       </c>
-      <c r="B380" t="s">
-        <v>612</v>
-      </c>
       <c r="C380" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D380" t="s">
         <v>2</v>
@@ -7953,10 +7953,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B381" t="s">
         <v>428</v>
-      </c>
-      <c r="B381" t="s">
-        <v>429</v>
       </c>
       <c r="C381" t="s">
         <v>8</v>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
+        <v>650</v>
+      </c>
+      <c r="B382" t="s">
         <v>651</v>
-      </c>
-      <c r="B382" t="s">
-        <v>652</v>
       </c>
       <c r="C382" t="s">
         <v>8</v>
@@ -7981,10 +7981,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
+        <v>652</v>
+      </c>
+      <c r="B383" t="s">
         <v>653</v>
-      </c>
-      <c r="B383" t="s">
-        <v>654</v>
       </c>
       <c r="C383" t="s">
         <v>8</v>
@@ -7995,10 +7995,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
+        <v>293</v>
+      </c>
+      <c r="B384" t="s">
         <v>294</v>
-      </c>
-      <c r="B384" t="s">
-        <v>295</v>
       </c>
       <c r="C384" t="s">
         <v>8</v>
@@ -8009,10 +8009,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B385" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C385" t="s">
         <v>17</v>
@@ -8023,10 +8023,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
+        <v>655</v>
+      </c>
+      <c r="B386" t="s">
         <v>656</v>
-      </c>
-      <c r="B386" t="s">
-        <v>657</v>
       </c>
       <c r="C386" t="s">
         <v>8</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B387" t="s">
         <v>33</v>
@@ -8051,10 +8051,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
+        <v>304</v>
+      </c>
+      <c r="B388" t="s">
         <v>305</v>
-      </c>
-      <c r="B388" t="s">
-        <v>306</v>
       </c>
       <c r="C388" t="s">
         <v>8</v>
@@ -8065,10 +8065,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B389" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C389" t="s">
         <v>8</v>
@@ -8079,10 +8079,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
+        <v>658</v>
+      </c>
+      <c r="B390" t="s">
         <v>659</v>
-      </c>
-      <c r="B390" t="s">
-        <v>660</v>
       </c>
       <c r="C390" t="s">
         <v>8</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B391" t="s">
         <v>35</v>
@@ -8107,10 +8107,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
+        <v>661</v>
+      </c>
+      <c r="B392" t="s">
         <v>662</v>
-      </c>
-      <c r="B392" t="s">
-        <v>663</v>
       </c>
       <c r="C392" t="s">
         <v>8</v>
@@ -8121,10 +8121,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
+        <v>663</v>
+      </c>
+      <c r="B393" t="s">
         <v>664</v>
-      </c>
-      <c r="B393" t="s">
-        <v>665</v>
       </c>
       <c r="C393" t="s">
         <v>8</v>
@@ -8135,10 +8135,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
+        <v>665</v>
+      </c>
+      <c r="B394" t="s">
         <v>666</v>
-      </c>
-      <c r="B394" t="s">
-        <v>667</v>
       </c>
       <c r="C394" t="s">
         <v>8</v>
@@ -8149,10 +8149,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>88</v>
+      </c>
+      <c r="B395" t="s">
         <v>89</v>
-      </c>
-      <c r="B395" t="s">
-        <v>90</v>
       </c>
       <c r="C395" t="s">
         <v>8</v>
@@ -8163,10 +8163,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
+        <v>333</v>
+      </c>
+      <c r="B396" t="s">
         <v>334</v>
-      </c>
-      <c r="B396" t="s">
-        <v>335</v>
       </c>
       <c r="C396" t="s">
         <v>8</v>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
+        <v>667</v>
+      </c>
+      <c r="B397" t="s">
         <v>668</v>
-      </c>
-      <c r="B397" t="s">
-        <v>669</v>
       </c>
       <c r="C397" t="s">
         <v>8</v>
@@ -8191,10 +8191,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
+        <v>669</v>
+      </c>
+      <c r="B398" t="s">
         <v>670</v>
-      </c>
-      <c r="B398" t="s">
-        <v>671</v>
       </c>
       <c r="C398" t="s">
         <v>8</v>
@@ -8205,13 +8205,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B399" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C399" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -8219,10 +8219,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B400" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -8233,10 +8233,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
+        <v>112</v>
+      </c>
+      <c r="B401" t="s">
         <v>113</v>
-      </c>
-      <c r="B401" t="s">
-        <v>114</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
@@ -8247,10 +8247,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
+        <v>673</v>
+      </c>
+      <c r="B402" t="s">
         <v>674</v>
-      </c>
-      <c r="B402" t="s">
-        <v>675</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -8261,10 +8261,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
+        <v>675</v>
+      </c>
+      <c r="B403" t="s">
         <v>676</v>
-      </c>
-      <c r="B403" t="s">
-        <v>677</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -8275,10 +8275,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
+        <v>677</v>
+      </c>
+      <c r="B404" t="s">
         <v>678</v>
-      </c>
-      <c r="B404" t="s">
-        <v>679</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
@@ -8289,10 +8289,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
+        <v>679</v>
+      </c>
+      <c r="B405" t="s">
         <v>680</v>
-      </c>
-      <c r="B405" t="s">
-        <v>681</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
@@ -8303,10 +8303,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
+        <v>365</v>
+      </c>
+      <c r="B406" t="s">
         <v>366</v>
-      </c>
-      <c r="B406" t="s">
-        <v>367</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
@@ -8317,13 +8317,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B407" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C407" t="s">
-        <v>47</v>
+        <v>700</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -8331,10 +8331,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
+        <v>682</v>
+      </c>
+      <c r="B408" t="s">
         <v>683</v>
-      </c>
-      <c r="B408" t="s">
-        <v>684</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
@@ -8345,10 +8345,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
+        <v>684</v>
+      </c>
+      <c r="B409" t="s">
         <v>685</v>
-      </c>
-      <c r="B409" t="s">
-        <v>686</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
@@ -8359,10 +8359,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
+        <v>686</v>
+      </c>
+      <c r="B410" t="s">
         <v>687</v>
-      </c>
-      <c r="B410" t="s">
-        <v>688</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
@@ -8373,10 +8373,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
+        <v>688</v>
+      </c>
+      <c r="B411" t="s">
         <v>689</v>
-      </c>
-      <c r="B411" t="s">
-        <v>690</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -8387,10 +8387,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
+        <v>690</v>
+      </c>
+      <c r="B412" t="s">
         <v>691</v>
-      </c>
-      <c r="B412" t="s">
-        <v>692</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
+        <v>692</v>
+      </c>
+      <c r="B413" t="s">
         <v>693</v>
-      </c>
-      <c r="B413" t="s">
-        <v>694</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -8415,10 +8415,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
+        <v>694</v>
+      </c>
+      <c r="B414" t="s">
         <v>695</v>
-      </c>
-      <c r="B414" t="s">
-        <v>696</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
@@ -8429,10 +8429,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
+        <v>191</v>
+      </c>
+      <c r="B415" t="s">
         <v>192</v>
-      </c>
-      <c r="B415" t="s">
-        <v>193</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
@@ -8443,10 +8443,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
+        <v>696</v>
+      </c>
+      <c r="B416" t="s">
         <v>697</v>
-      </c>
-      <c r="B416" t="s">
-        <v>698</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
@@ -8457,10 +8457,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
+        <v>698</v>
+      </c>
+      <c r="B417" t="s">
         <v>699</v>
-      </c>
-      <c r="B417" t="s">
-        <v>700</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
@@ -8471,13 +8471,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B418" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C418" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -8485,13 +8485,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
+        <v>614</v>
+      </c>
+      <c r="B419" t="s">
         <v>615</v>
       </c>
-      <c r="B419" t="s">
-        <v>616</v>
-      </c>
       <c r="C419" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -8499,13 +8499,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
+        <v>616</v>
+      </c>
+      <c r="B420" t="s">
         <v>617</v>
       </c>
-      <c r="B420" t="s">
-        <v>618</v>
-      </c>
       <c r="C420" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -8513,13 +8513,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
+        <v>618</v>
+      </c>
+      <c r="B421" t="s">
         <v>619</v>
       </c>
-      <c r="B421" t="s">
-        <v>620</v>
-      </c>
       <c r="C421" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -8527,13 +8527,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>620</v>
+      </c>
+      <c r="B422" t="s">
         <v>621</v>
       </c>
-      <c r="B422" t="s">
-        <v>622</v>
-      </c>
       <c r="C422" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -8541,13 +8541,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
+        <v>622</v>
+      </c>
+      <c r="B423" t="s">
         <v>623</v>
       </c>
-      <c r="B423" t="s">
-        <v>624</v>
-      </c>
       <c r="C423" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -8555,13 +8555,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
+        <v>624</v>
+      </c>
+      <c r="B424" t="s">
         <v>625</v>
       </c>
-      <c r="B424" t="s">
-        <v>626</v>
-      </c>
       <c r="C424" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -8569,13 +8569,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
+        <v>626</v>
+      </c>
+      <c r="B425" t="s">
         <v>627</v>
       </c>
-      <c r="B425" t="s">
-        <v>628</v>
-      </c>
       <c r="C425" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -8583,13 +8583,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
+        <v>628</v>
+      </c>
+      <c r="B426" t="s">
         <v>629</v>
       </c>
-      <c r="B426" t="s">
-        <v>630</v>
-      </c>
       <c r="C426" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -8597,13 +8597,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B427" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C427" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -8611,13 +8611,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B428" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C428" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
+        <v>631</v>
+      </c>
+      <c r="B429" t="s">
         <v>632</v>
-      </c>
-      <c r="B429" t="s">
-        <v>633</v>
       </c>
       <c r="C429" t="s">
         <v>17</v>
@@ -8639,10 +8639,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B430" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
@@ -8653,13 +8653,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B431" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C431" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -8667,13 +8667,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B432" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C432" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -8681,13 +8681,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B433" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C433" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -8695,13 +8695,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B434" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C434" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -8709,13 +8709,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B435" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C435" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -8723,13 +8723,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B436" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C436" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -8737,13 +8737,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B437" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C437" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -8751,13 +8751,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B438" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C438" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -8765,13 +8765,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B439" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C439" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -8779,13 +8779,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B440" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C440" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -8793,13 +8793,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B441" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C441" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -8807,13 +8807,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B442" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C442" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -8821,13 +8821,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
+        <v>643</v>
+      </c>
+      <c r="B443" t="s">
         <v>644</v>
       </c>
-      <c r="B443" t="s">
-        <v>645</v>
-      </c>
       <c r="C443" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -8835,13 +8835,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B444" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C444" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -8849,10 +8849,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B445" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C445" t="s">
         <v>8</v>
@@ -8863,10 +8863,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
+        <v>646</v>
+      </c>
+      <c r="B446" t="s">
         <v>647</v>
-      </c>
-      <c r="B446" t="s">
-        <v>648</v>
       </c>
       <c r="C446" t="s">
         <v>8</v>
@@ -8877,10 +8877,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
+        <v>648</v>
+      </c>
+      <c r="B447" t="s">
         <v>649</v>
-      </c>
-      <c r="B447" t="s">
-        <v>650</v>
       </c>
       <c r="C447" t="s">
         <v>8</v>
